--- a/Dokumentation/Gantt-Diagramm.xlsx
+++ b/Dokumentation/Gantt-Diagramm.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B01878E-B343-4793-A877-0EB3F96FB511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A80078-F893-48A8-A425-01937653370A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -264,15 +264,6 @@
     <t>Group implementieren</t>
   </si>
   <si>
-    <t>21/5/24</t>
-  </si>
-  <si>
-    <t>14/5/24</t>
-  </si>
-  <si>
-    <t>28/5/24</t>
-  </si>
-  <si>
     <t>Diagramm aktualisieren</t>
   </si>
   <si>
@@ -280,6 +271,24 @@
   </si>
   <si>
     <t>am 11.06 dem Tutor abgeben</t>
+  </si>
+  <si>
+    <t>Linh + Le</t>
+  </si>
+  <si>
+    <t>Cancel-Method</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Pari implementieren (neue Spezification)</t>
+  </si>
+  <si>
+    <t>Ausgabeformat ändern</t>
+  </si>
+  <si>
+    <t>Gantt Chart aktualisieren</t>
   </si>
 </sst>
 </file>
@@ -296,7 +305,7 @@
     <numFmt numFmtId="168" formatCode="d/\ mmm\ yyyy"/>
     <numFmt numFmtId="169" formatCode="d"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,8 +557,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,6 +793,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -1059,7 +1081,7 @@
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1189,6 +1211,45 @@
     <xf numFmtId="169" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="40" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1201,58 +1262,16 @@
     <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="2" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="40" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="40" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,12 +1637,6 @@
           <cell r="D28">
             <v>1</v>
           </cell>
-          <cell r="E28">
-            <v>45405</v>
-          </cell>
-          <cell r="F28">
-            <v>45413</v>
-          </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
@@ -1634,12 +1647,6 @@
           </cell>
           <cell r="D29">
             <v>1</v>
-          </cell>
-          <cell r="E29">
-            <v>45405</v>
-          </cell>
-          <cell r="F29">
-            <v>45413</v>
           </cell>
         </row>
         <row r="30">
@@ -1652,12 +1659,6 @@
           <cell r="D30">
             <v>1</v>
           </cell>
-          <cell r="E30">
-            <v>45405</v>
-          </cell>
-          <cell r="F30">
-            <v>45413</v>
-          </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
@@ -1669,12 +1670,6 @@
           <cell r="D31">
             <v>1</v>
           </cell>
-          <cell r="E31">
-            <v>45405</v>
-          </cell>
-          <cell r="F31">
-            <v>45413</v>
-          </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
@@ -1685,12 +1680,6 @@
           </cell>
           <cell r="D32">
             <v>1</v>
-          </cell>
-          <cell r="E32">
-            <v>45405</v>
-          </cell>
-          <cell r="F32">
-            <v>45406</v>
           </cell>
         </row>
         <row r="33">
@@ -2011,11 +2000,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL36"/>
+  <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="53" zoomScaleNormal="53" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2066,107 +2055,107 @@
       <c r="B3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="52">
+      <c r="D3" s="61"/>
+      <c r="E3" s="65">
         <f ca="1">TODAY()</f>
-        <v>45434</v>
-      </c>
-      <c r="F3" s="52"/>
+        <v>45448</v>
+      </c>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="49">
+        <v>-4</v>
+      </c>
+      <c r="I4" s="62">
         <f ca="1">I5</f>
+        <v>45411</v>
+      </c>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="62">
+        <f ca="1">P5</f>
+        <v>45418</v>
+      </c>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="62">
+        <f ca="1">W5</f>
+        <v>45425</v>
+      </c>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="62">
+        <f ca="1">AD5</f>
         <v>45432</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="49">
-        <f ca="1">P5</f>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="62">
+        <f ca="1">AK5</f>
         <v>45439</v>
       </c>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="49">
-        <f ca="1">W5</f>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="64"/>
+      <c r="AR4" s="62">
+        <f ca="1">AR5</f>
         <v>45446</v>
       </c>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="49">
-        <f ca="1">AD5</f>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="62">
+        <f ca="1">AY5</f>
         <v>45453</v>
       </c>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="49">
-        <f ca="1">AK5</f>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="63"/>
+      <c r="BC4" s="63"/>
+      <c r="BD4" s="63"/>
+      <c r="BE4" s="64"/>
+      <c r="BF4" s="62">
+        <f ca="1">BF5</f>
         <v>45460</v>
       </c>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="49">
-        <f ca="1">AR5</f>
-        <v>45467</v>
-      </c>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="49">
-        <f ca="1">AY5</f>
-        <v>45474</v>
-      </c>
-      <c r="AZ4" s="50"/>
-      <c r="BA4" s="50"/>
-      <c r="BB4" s="50"/>
-      <c r="BC4" s="50"/>
-      <c r="BD4" s="50"/>
-      <c r="BE4" s="51"/>
-      <c r="BF4" s="49">
-        <f ca="1">BF5</f>
-        <v>45481</v>
-      </c>
-      <c r="BG4" s="50"/>
-      <c r="BH4" s="50"/>
-      <c r="BI4" s="50"/>
-      <c r="BJ4" s="50"/>
-      <c r="BK4" s="50"/>
-      <c r="BL4" s="51"/>
+      <c r="BG4" s="63"/>
+      <c r="BH4" s="63"/>
+      <c r="BI4" s="63"/>
+      <c r="BJ4" s="63"/>
+      <c r="BK4" s="63"/>
+      <c r="BL4" s="64"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
@@ -2180,227 +2169,227 @@
       <c r="G5" s="39"/>
       <c r="I5" s="46">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Anzeigewoche-1)</f>
-        <v>45432</v>
+        <v>45411</v>
       </c>
       <c r="J5" s="47">
         <f ca="1">I5+1</f>
-        <v>45433</v>
+        <v>45412</v>
       </c>
       <c r="K5" s="47">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45434</v>
+        <v>45413</v>
       </c>
       <c r="L5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45435</v>
+        <v>45414</v>
       </c>
       <c r="M5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45436</v>
+        <v>45415</v>
       </c>
       <c r="N5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45437</v>
+        <v>45416</v>
       </c>
       <c r="O5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>45438</v>
+        <v>45417</v>
       </c>
       <c r="P5" s="46">
         <f ca="1">O5+1</f>
-        <v>45439</v>
+        <v>45418</v>
       </c>
       <c r="Q5" s="47">
         <f ca="1">P5+1</f>
-        <v>45440</v>
+        <v>45419</v>
       </c>
       <c r="R5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45441</v>
+        <v>45420</v>
       </c>
       <c r="S5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45442</v>
+        <v>45421</v>
       </c>
       <c r="T5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45443</v>
+        <v>45422</v>
       </c>
       <c r="U5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45444</v>
+        <v>45423</v>
       </c>
       <c r="V5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>45445</v>
+        <v>45424</v>
       </c>
       <c r="W5" s="46">
         <f ca="1">V5+1</f>
-        <v>45446</v>
+        <v>45425</v>
       </c>
       <c r="X5" s="47">
         <f ca="1">W5+1</f>
-        <v>45447</v>
+        <v>45426</v>
       </c>
       <c r="Y5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45448</v>
+        <v>45427</v>
       </c>
       <c r="Z5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45449</v>
+        <v>45428</v>
       </c>
       <c r="AA5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45450</v>
+        <v>45429</v>
       </c>
       <c r="AB5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45451</v>
+        <v>45430</v>
       </c>
       <c r="AC5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>45452</v>
+        <v>45431</v>
       </c>
       <c r="AD5" s="46">
         <f ca="1">AC5+1</f>
-        <v>45453</v>
+        <v>45432</v>
       </c>
       <c r="AE5" s="47">
         <f ca="1">AD5+1</f>
-        <v>45454</v>
+        <v>45433</v>
       </c>
       <c r="AF5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45455</v>
+        <v>45434</v>
       </c>
       <c r="AG5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45456</v>
+        <v>45435</v>
       </c>
       <c r="AH5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45457</v>
+        <v>45436</v>
       </c>
       <c r="AI5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45458</v>
+        <v>45437</v>
       </c>
       <c r="AJ5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>45459</v>
+        <v>45438</v>
       </c>
       <c r="AK5" s="46">
         <f ca="1">AJ5+1</f>
-        <v>45460</v>
+        <v>45439</v>
       </c>
       <c r="AL5" s="47">
         <f ca="1">AK5+1</f>
-        <v>45461</v>
+        <v>45440</v>
       </c>
       <c r="AM5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45462</v>
+        <v>45441</v>
       </c>
       <c r="AN5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45463</v>
+        <v>45442</v>
       </c>
       <c r="AO5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45464</v>
+        <v>45443</v>
       </c>
       <c r="AP5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45465</v>
+        <v>45444</v>
       </c>
       <c r="AQ5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>45466</v>
+        <v>45445</v>
       </c>
       <c r="AR5" s="46">
         <f ca="1">AQ5+1</f>
-        <v>45467</v>
+        <v>45446</v>
       </c>
       <c r="AS5" s="47">
         <f ca="1">AR5+1</f>
-        <v>45468</v>
+        <v>45447</v>
       </c>
       <c r="AT5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45469</v>
+        <v>45448</v>
       </c>
       <c r="AU5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45470</v>
+        <v>45449</v>
       </c>
       <c r="AV5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45471</v>
+        <v>45450</v>
       </c>
       <c r="AW5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45472</v>
+        <v>45451</v>
       </c>
       <c r="AX5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>45473</v>
+        <v>45452</v>
       </c>
       <c r="AY5" s="46">
         <f ca="1">AX5+1</f>
-        <v>45474</v>
+        <v>45453</v>
       </c>
       <c r="AZ5" s="47">
         <f ca="1">AY5+1</f>
-        <v>45475</v>
+        <v>45454</v>
       </c>
       <c r="BA5" s="47">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45476</v>
+        <v>45455</v>
       </c>
       <c r="BB5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>45477</v>
+        <v>45456</v>
       </c>
       <c r="BC5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>45478</v>
+        <v>45457</v>
       </c>
       <c r="BD5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>45479</v>
+        <v>45458</v>
       </c>
       <c r="BE5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>45480</v>
+        <v>45459</v>
       </c>
       <c r="BF5" s="46">
         <f ca="1">BE5+1</f>
-        <v>45481</v>
+        <v>45460</v>
       </c>
       <c r="BG5" s="47">
         <f ca="1">BF5+1</f>
-        <v>45482</v>
+        <v>45461</v>
       </c>
       <c r="BH5" s="47">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45483</v>
+        <v>45462</v>
       </c>
       <c r="BI5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>45484</v>
+        <v>45463</v>
       </c>
       <c r="BJ5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>45485</v>
+        <v>45464</v>
       </c>
       <c r="BK5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45465</v>
       </c>
       <c r="BL5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>45487</v>
+        <v>45466</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2555,7 +2544,7 @@
         <v>T</v>
       </c>
       <c r="AO6" s="9" t="str">
-        <f t="shared" ref="AO6:BT6" ca="1" si="4">LEFT(TEXT(AO5,"TTTT"),1)</f>
+        <f t="shared" ref="AO6:BL6" ca="1" si="4">LEFT(TEXT(AO5,"TTTT"),1)</f>
         <v>T</v>
       </c>
       <c r="AP6" s="9" t="str">
@@ -2722,16 +2711,16 @@
       <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="str">
-        <f t="shared" ref="H8:H33" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H30" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="17"/>
@@ -2795,7 +2784,7 @@
       <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="55" t="str">
+      <c r="B9" s="49" t="str">
         <f>[1]Projektplan!B28</f>
         <v>Gantt Chart Erstellen</v>
       </c>
@@ -2807,12 +2796,10 @@
         <f>[1]Projektplan!D28</f>
         <v>1</v>
       </c>
-      <c r="E9" s="70">
-        <f>[1]Projektplan!E28</f>
+      <c r="E9" s="58">
         <v>45405</v>
       </c>
-      <c r="F9" s="70">
-        <f>[1]Projektplan!F28</f>
+      <c r="F9" s="58">
         <v>45413</v>
       </c>
       <c r="G9" s="12"/>
@@ -2881,7 +2868,7 @@
       <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="55" t="str">
+      <c r="B10" s="49" t="str">
         <f>[1]Projektplan!B29</f>
         <v xml:space="preserve">Grobes Klassendiagramm </v>
       </c>
@@ -2893,12 +2880,10 @@
         <f>[1]Projektplan!D29</f>
         <v>1</v>
       </c>
-      <c r="E10" s="70">
-        <f>[1]Projektplan!E29</f>
+      <c r="E10" s="58">
         <v>45405</v>
       </c>
-      <c r="F10" s="70">
-        <f>[1]Projektplan!F29</f>
+      <c r="F10" s="58">
         <v>45413</v>
       </c>
       <c r="G10" s="12"/>
@@ -2965,7 +2950,7 @@
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="30"/>
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="49" t="str">
         <f>[1]Projektplan!B30</f>
         <v>Grobe Implementierung Klassen</v>
       </c>
@@ -2977,12 +2962,10 @@
         <f>[1]Projektplan!D30</f>
         <v>1</v>
       </c>
-      <c r="E11" s="70">
-        <f>[1]Projektplan!E30</f>
+      <c r="E11" s="58">
         <v>45405</v>
       </c>
-      <c r="F11" s="70">
-        <f>[1]Projektplan!F30</f>
+      <c r="F11" s="58">
         <v>45413</v>
       </c>
       <c r="G11" s="12"/>
@@ -3049,7 +3032,7 @@
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="30"/>
-      <c r="B12" s="55" t="str">
+      <c r="B12" s="49" t="str">
         <f>[1]Projektplan!B31</f>
         <v xml:space="preserve"> Input / Output</v>
       </c>
@@ -3061,12 +3044,10 @@
         <f>[1]Projektplan!D31</f>
         <v>1</v>
       </c>
-      <c r="E12" s="70">
-        <f>[1]Projektplan!E31</f>
+      <c r="E12" s="58">
         <v>45405</v>
       </c>
-      <c r="F12" s="70">
-        <f>[1]Projektplan!F31</f>
+      <c r="F12" s="58">
         <v>45413</v>
       </c>
       <c r="G12" s="12"/>
@@ -3133,7 +3114,7 @@
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="30"/>
-      <c r="B13" s="55" t="str">
+      <c r="B13" s="49" t="str">
         <f>[1]Projektplan!B32</f>
         <v>GitLab Einrichten</v>
       </c>
@@ -3145,12 +3126,10 @@
         <f>[1]Projektplan!D32</f>
         <v>1</v>
       </c>
-      <c r="E13" s="70">
-        <f>[1]Projektplan!E32</f>
+      <c r="E13" s="58">
         <v>45405</v>
       </c>
-      <c r="F13" s="70">
-        <f>[1]Projektplan!F32</f>
+      <c r="F13" s="58">
         <v>45406</v>
       </c>
       <c r="G13" s="12"/>
@@ -3219,7 +3198,7 @@
       <c r="A14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="55" t="str">
+      <c r="B14" s="49" t="str">
         <f>[1]Projektplan!B33</f>
         <v>POM Maven</v>
       </c>
@@ -3228,11 +3207,11 @@
         <f>[1]Projektplan!D33</f>
         <v>1</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="58">
         <f>[1]Projektplan!E33</f>
         <v>45414</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="58">
         <f>[1]Projektplan!F33</f>
         <v>45422</v>
       </c>
@@ -3300,7 +3279,7 @@
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="31"/>
-      <c r="B15" s="55" t="str">
+      <c r="B15" s="49" t="str">
         <f>[1]Projektplan!B34</f>
         <v>Use Case Diagramm</v>
       </c>
@@ -3312,11 +3291,11 @@
         <f>[1]Projektplan!D34</f>
         <v>1</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="58">
         <f>[1]Projektplan!E34</f>
         <v>45414</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="58">
         <f>[1]Projektplan!F34</f>
         <v>45422</v>
       </c>
@@ -3384,7 +3363,7 @@
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="30"/>
-      <c r="B16" s="55" t="str">
+      <c r="B16" s="49" t="str">
         <f>[1]Projektplan!B35</f>
         <v>Tests</v>
       </c>
@@ -3395,11 +3374,11 @@
         <f>[1]Projektplan!D35</f>
         <v>1</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="58">
         <f>[1]Projektplan!E35</f>
         <v>45405</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="58">
         <f>[1]Projektplan!F35</f>
         <v>45413</v>
       </c>
@@ -3468,7 +3447,7 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="30"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="15"/>
@@ -3500,14 +3479,14 @@
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
       <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="67"/>
+      <c r="AF17" s="67"/>
+      <c r="AG17" s="67"/>
+      <c r="AH17" s="67"/>
+      <c r="AI17" s="67"/>
+      <c r="AJ17" s="67"/>
+      <c r="AK17" s="67"/>
       <c r="AL17" s="17"/>
       <c r="AM17" s="17"/>
       <c r="AN17" s="17"/>
@@ -3538,23 +3517,25 @@
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="30"/>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="50" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>60</v>
+      <c r="D18" s="54">
+        <v>1</v>
+      </c>
+      <c r="E18" s="45">
+        <v>45433</v>
+      </c>
+      <c r="F18" s="45">
+        <v>45433</v>
       </c>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="e">
+      <c r="H18" s="12">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -3577,14 +3558,14 @@
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="67"/>
+      <c r="AI18" s="67"/>
+      <c r="AJ18" s="67"/>
+      <c r="AK18" s="67"/>
       <c r="AL18" s="17"/>
       <c r="AM18" s="17"/>
       <c r="AN18" s="17"/>
@@ -3615,21 +3596,25 @@
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="30"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="50" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="45"/>
+        <v>55</v>
+      </c>
+      <c r="D19" s="54">
+        <v>1</v>
+      </c>
+      <c r="E19" s="45">
+        <v>45433</v>
+      </c>
+      <c r="F19" s="45">
+        <v>45437</v>
+      </c>
       <c r="G19" s="12"/>
-      <c r="H19" s="12" t="str">
+      <c r="H19" s="12">
         <f t="shared" si="5"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
@@ -3652,14 +3637,14 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="67"/>
       <c r="AL19" s="17"/>
       <c r="AM19" s="17"/>
       <c r="AN19" s="17"/>
@@ -3690,23 +3675,25 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="30"/>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="50" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="63"/>
+      <c r="D20" s="54">
+        <v>1</v>
+      </c>
       <c r="E20" s="45">
-        <v>45478</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>61</v>
+        <v>45419</v>
+      </c>
+      <c r="F20" s="45">
+        <v>45426</v>
       </c>
       <c r="G20" s="12"/>
-      <c r="H20" s="12" t="e">
+      <c r="H20" s="12">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -3729,14 +3716,14 @@
       <c r="AA20" s="17"/>
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="67"/>
+      <c r="AH20" s="67"/>
+      <c r="AI20" s="67"/>
+      <c r="AJ20" s="67"/>
+      <c r="AK20" s="67"/>
       <c r="AL20" s="17"/>
       <c r="AM20" s="17"/>
       <c r="AN20" s="17"/>
@@ -3767,23 +3754,25 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="30"/>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>60</v>
+      <c r="D21" s="54">
+        <v>1</v>
+      </c>
+      <c r="E21" s="45">
+        <v>45426</v>
+      </c>
+      <c r="F21" s="45">
+        <v>45433</v>
       </c>
       <c r="G21" s="12"/>
-      <c r="H21" s="12" t="e">
+      <c r="H21" s="12">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -3844,15 +3833,17 @@
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="30"/>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="D22" s="54">
+        <v>1</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12" t="str">
         <f t="shared" si="5"/>
@@ -3917,23 +3908,25 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="30"/>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="69" t="s">
-        <v>62</v>
+      <c r="D23" s="54">
+        <v>1</v>
+      </c>
+      <c r="E23" s="69">
+        <v>45433</v>
+      </c>
+      <c r="F23" s="69">
+        <v>45440</v>
       </c>
       <c r="G23" s="12"/>
-      <c r="H23" s="12" t="e">
+      <c r="H23" s="12">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -3994,21 +3987,23 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="30"/>
-      <c r="B24" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="45" t="s">
+      <c r="B24" s="56" t="s">
         <v>60</v>
       </c>
+      <c r="C24" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="54"/>
+      <c r="E24" s="45">
+        <v>45426</v>
+      </c>
+      <c r="F24" s="45">
+        <v>45433</v>
+      </c>
       <c r="G24" s="12"/>
-      <c r="H24" s="12" t="e">
+      <c r="H24" s="12">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
@@ -4069,19 +4064,23 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="30"/>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
+        <v>63</v>
+      </c>
+      <c r="D25" s="54"/>
+      <c r="E25" s="45">
+        <v>45447</v>
+      </c>
+      <c r="F25" s="45">
+        <v>45571</v>
+      </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="12" t="str">
+      <c r="H25" s="12">
         <f t="shared" si="5"/>
-        <v/>
+        <v>125</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
@@ -4142,13 +4141,13 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="30"/>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="56" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
       <c r="G26" s="12"/>
@@ -4215,13 +4214,13 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="30"/>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="56" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="63"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
       <c r="G27" s="12"/>
@@ -4288,23 +4287,23 @@
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="30"/>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="56" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>62</v>
+      <c r="D28" s="54"/>
+      <c r="E28" s="45">
+        <v>45433</v>
+      </c>
+      <c r="F28" s="45">
+        <v>45440</v>
       </c>
       <c r="G28" s="12"/>
-      <c r="H28" s="12" t="e">
+      <c r="H28" s="12">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
@@ -4365,21 +4364,25 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="30"/>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>62</v>
+      <c r="C29" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="54">
+        <v>1</v>
+      </c>
+      <c r="E29" s="45">
+        <v>45433</v>
+      </c>
+      <c r="F29" s="45">
+        <v>45440</v>
       </c>
       <c r="G29" s="12"/>
-      <c r="H29" s="12" t="e">
+      <c r="H29" s="12">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
@@ -4440,21 +4443,25 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="30"/>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>62</v>
+      <c r="C30" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="54">
+        <v>1</v>
+      </c>
+      <c r="E30" s="45">
+        <v>45433</v>
+      </c>
+      <c r="F30" s="45">
+        <v>45440</v>
       </c>
       <c r="G30" s="12"/>
-      <c r="H30" s="12" t="e">
+      <c r="H30" s="12">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
@@ -4515,21 +4522,25 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="30"/>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="60">
-        <v>45388</v>
+      <c r="C31" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="54">
+        <v>1</v>
+      </c>
+      <c r="E31" s="45">
+        <v>45440</v>
+      </c>
+      <c r="F31" s="45">
+        <v>45447</v>
       </c>
       <c r="G31" s="12"/>
-      <c r="H31" s="12" t="e">
+      <c r="H31" s="12">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -4592,21 +4603,25 @@
       <c r="A32" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="60">
-        <v>45388</v>
+      <c r="C32" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="54">
+        <v>1</v>
+      </c>
+      <c r="E32" s="45">
+        <v>45440</v>
+      </c>
+      <c r="F32" s="45">
+        <v>45447</v>
       </c>
       <c r="G32" s="12"/>
-      <c r="H32" s="12" t="e">
+      <c r="H32" s="12">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
@@ -4666,21 +4681,22 @@
       <c r="BL32" s="17"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="60"/>
+      <c r="A33" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="66"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="45">
+        <v>45448</v>
+      </c>
+      <c r="F33" s="45">
+        <v>45510</v>
+      </c>
       <c r="G33" s="12"/>
-      <c r="H33" s="12" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H33" s="12"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
@@ -4738,19 +4754,17 @@
       <c r="BK33" s="17"/>
       <c r="BL33" s="17"/>
     </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="68"/>
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="30"/>
+      <c r="B34" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="66"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="45"/>
-      <c r="F34" s="60"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="12" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H34" s="12"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
@@ -4808,20 +4822,300 @@
       <c r="BK34" s="17"/>
       <c r="BL34" s="17"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="10"/>
-      <c r="F35" s="32"/>
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="30"/>
+      <c r="B35" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="66"/>
+      <c r="D35" s="54">
+        <v>1</v>
+      </c>
+      <c r="E35" s="45">
+        <v>45448</v>
+      </c>
+      <c r="F35" s="45">
+        <v>45448</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="17"/>
+      <c r="AQ35" s="17"/>
+      <c r="AR35" s="17"/>
+      <c r="AS35" s="17"/>
+      <c r="AT35" s="17"/>
+      <c r="AU35" s="17"/>
+      <c r="AV35" s="17"/>
+      <c r="AW35" s="17"/>
+      <c r="AX35" s="17"/>
+      <c r="AY35" s="17"/>
+      <c r="AZ35" s="17"/>
+      <c r="BA35" s="17"/>
+      <c r="BB35" s="17"/>
+      <c r="BC35" s="17"/>
+      <c r="BD35" s="17"/>
+      <c r="BE35" s="17"/>
+      <c r="BF35" s="17"/>
+      <c r="BG35" s="17"/>
+      <c r="BH35" s="17"/>
+      <c r="BI35" s="17"/>
+      <c r="BJ35" s="17"/>
+      <c r="BK35" s="17"/>
+      <c r="BL35" s="17"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="11"/>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="66"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12" t="str">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="17"/>
+      <c r="AQ36" s="17"/>
+      <c r="AR36" s="17"/>
+      <c r="AS36" s="17"/>
+      <c r="AT36" s="17"/>
+      <c r="AU36" s="17"/>
+      <c r="AV36" s="17"/>
+      <c r="AW36" s="17"/>
+      <c r="AX36" s="17"/>
+      <c r="AY36" s="17"/>
+      <c r="AZ36" s="17"/>
+      <c r="BA36" s="17"/>
+      <c r="BB36" s="17"/>
+      <c r="BC36" s="17"/>
+      <c r="BD36" s="17"/>
+      <c r="BE36" s="17"/>
+      <c r="BF36" s="17"/>
+      <c r="BG36" s="17"/>
+      <c r="BH36" s="17"/>
+      <c r="BI36" s="17"/>
+      <c r="BJ36" s="17"/>
+      <c r="BK36" s="17"/>
+      <c r="BL36" s="17"/>
+    </row>
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="31"/>
+      <c r="B37" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="66"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
+      <c r="AQ37" s="17"/>
+      <c r="AR37" s="17"/>
+      <c r="AS37" s="17"/>
+      <c r="AT37" s="17"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="17"/>
+      <c r="AW37" s="17"/>
+      <c r="AX37" s="17"/>
+      <c r="AY37" s="17"/>
+      <c r="AZ37" s="17"/>
+      <c r="BA37" s="17"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="17"/>
+      <c r="BD37" s="17"/>
+      <c r="BE37" s="17"/>
+      <c r="BF37" s="17"/>
+      <c r="BG37" s="17"/>
+      <c r="BH37" s="17"/>
+      <c r="BI37" s="17"/>
+      <c r="BJ37" s="17"/>
+      <c r="BK37" s="17"/>
+      <c r="BL37" s="17"/>
+    </row>
+    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="66"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12" t="str">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="17"/>
+      <c r="AO38" s="17"/>
+      <c r="AP38" s="17"/>
+      <c r="AQ38" s="17"/>
+      <c r="AR38" s="17"/>
+      <c r="AS38" s="17"/>
+      <c r="AT38" s="17"/>
+      <c r="AU38" s="17"/>
+      <c r="AV38" s="17"/>
+      <c r="AW38" s="17"/>
+      <c r="AX38" s="17"/>
+      <c r="AY38" s="17"/>
+      <c r="AZ38" s="17"/>
+      <c r="BA38" s="17"/>
+      <c r="BB38" s="17"/>
+      <c r="BC38" s="17"/>
+      <c r="BD38" s="17"/>
+      <c r="BE38" s="17"/>
+      <c r="BF38" s="17"/>
+      <c r="BG38" s="17"/>
+      <c r="BH38" s="17"/>
+      <c r="BI38" s="17"/>
+      <c r="BJ38" s="17"/>
+      <c r="BK38" s="17"/>
+      <c r="BL38" s="17"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="10"/>
+      <c r="F39" s="32"/>
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4829,9 +5123,14 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D17:D22 D7 D24:D34">
-    <cfRule type="dataBar" priority="16">
+  <conditionalFormatting sqref="C23">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4839,22 +5138,9 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B0389232-4C98-4A03-AD0E-39F63BAD1F53}</x14:id>
+          <x14:id>{FA7E8EBA-13CF-4195-948D-C5117DA0524D}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL34">
-    <cfRule type="expression" dxfId="2" priority="35">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL34">
-    <cfRule type="expression" dxfId="1" priority="29">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="30" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D16">
@@ -4871,8 +5157,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="D17:D38 D7">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4880,9 +5166,22 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FA7E8EBA-13CF-4195-948D-C5117DA0524D}</x14:id>
+          <x14:id>{B0389232-4C98-4A03-AD0E-39F63BAD1F53}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:BL38">
+    <cfRule type="expression" dxfId="2" priority="35">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:BL38">
+    <cfRule type="expression" dxfId="1" priority="29">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="30" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4904,7 +5203,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B0389232-4C98-4A03-AD0E-39F63BAD1F53}">
+          <x14:cfRule type="dataBar" id="{FA7E8EBA-13CF-4195-948D-C5117DA0524D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4916,7 +5215,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D17:D22 D7 D24:D34</xm:sqref>
+          <xm:sqref>C23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6145FD8C-646D-42F2-8307-445A372E97FF}">
@@ -4934,7 +5233,7 @@
           <xm:sqref>D9:D16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FA7E8EBA-13CF-4195-948D-C5117DA0524D}">
+          <x14:cfRule type="dataBar" id="{B0389232-4C98-4A03-AD0E-39F63BAD1F53}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4946,7 +5245,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C23</xm:sqref>
+          <xm:sqref>D17:D38 D7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5058,6 +5357,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5345,36 +5673,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5393,24 +5712,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>